--- a/medicine/Enfance/Liste_d'auteurs_de_littérature_de_jeunesse/Liste_d'auteurs_de_littérature_de_jeunesse.xlsx
+++ b/medicine/Enfance/Liste_d'auteurs_de_littérature_de_jeunesse/Liste_d'auteurs_de_littérature_de_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La page présente une liste, non exhaustive[En quoi ?], d'auteurs et d'autrices de littérature de jeunesse (soit d'albums, soit de romans, soit des deux).
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marion Achard
@@ -572,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -590,7 +604,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sigrid Baffert
@@ -655,7 +671,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -673,7 +689,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marc Cantin
@@ -719,7 +737,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -737,7 +755,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roald Dahl
@@ -769,7 +789,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -787,7 +807,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eli Anderson
@@ -807,7 +829,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -825,7 +847,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mahmoud Fahmi Abboud
@@ -862,7 +886,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -880,7 +904,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierre Gamarra
@@ -910,7 +936,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -928,7 +954,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anne Herbauts
@@ -952,7 +980,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -970,7 +998,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Célia Ibanez
 Yōko Imoto
@@ -984,7 +1014,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1032,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Annie Jay
@@ -1018,7 +1050,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1036,7 +1068,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eiko Kadono
@@ -1062,7 +1096,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1080,7 +1114,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierre Labrie
@@ -1118,7 +1154,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1136,7 +1172,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lenia Major
@@ -1174,7 +1212,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1192,7 +1230,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Edith Nesbit
@@ -1212,7 +1252,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1230,7 +1270,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mikaël Ollivier
@@ -1246,7 +1288,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1264,7 +1306,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Claire Panier-Alix
@@ -1320,7 +1364,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1338,7 +1382,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Raymond Queneau</t>
         </is>
@@ -1350,7 +1396,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1368,7 +1414,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ferenc Rákóczy
@@ -1398,7 +1446,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1416,7 +1464,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Louis Sachar
@@ -1450,7 +1500,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1468,7 +1518,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yves Taillefer
@@ -1499,7 +1551,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1517,7 +1569,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tomi Ungerer
@@ -1531,7 +1585,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1549,7 +1603,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mélusine Vaglio
@@ -1573,7 +1629,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1591,7 +1647,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yann Walcker
@@ -1609,7 +1667,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1627,7 +1685,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Haruo Yamashita
@@ -1642,7 +1702,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27auteurs_de_litt%C3%A9rature_de_jeunesse</t>
+          <t>Liste_d'auteurs_de_littérature_de_jeunesse</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1660,7 +1720,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Markus Zusak
